--- a/AAII_Financials/Yearly/RBGLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RBGLY_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,26 +665,27 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
+      <c r="D7" s="2">
+        <v>44926</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>3</v>
@@ -704,14 +705,17 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>17933300</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -731,14 +735,17 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>7559000</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -758,14 +765,17 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>10374300</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -785,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -799,13 +812,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>403300</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
@@ -825,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,14 +869,17 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>254400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -879,14 +899,17 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>40900</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -906,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,13 +943,14 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>13928000</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>3</v>
@@ -943,14 +970,17 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>4005300</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
@@ -970,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,13 +1017,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>89300</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>3</v>
@@ -1010,14 +1044,17 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>4852500</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1037,14 +1074,17 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>289100</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1064,14 +1104,17 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>3805500</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1091,14 +1134,17 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>882200</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1118,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,14 +1194,17 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>2923300</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>3</v>
@@ -1172,14 +1224,17 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>2899700</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>3</v>
@@ -1199,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,14 +1284,17 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>-8700</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>3</v>
@@ -1253,9 +1314,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,14 +1374,17 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-89300</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
@@ -1334,14 +1404,17 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>2891100</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>3</v>
@@ -1361,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,14 +1464,17 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>2891100</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>3</v>
@@ -1415,19 +1494,22 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>3</v>
+      <c r="D38" s="2">
+        <v>44926</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>3</v>
@@ -1447,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,13 +1560,14 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>478900</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1500,14 +1587,17 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>614200</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1527,14 +1617,17 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>2659000</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1554,14 +1647,17 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>2264500</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1581,14 +1677,17 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>541000</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1608,14 +1707,17 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>6557600</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1635,14 +1737,17 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>301500</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1662,14 +1767,17 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>3068500</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1689,14 +1797,17 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>25067900</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1716,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,14 +1887,17 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>667600</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1797,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,14 +1947,17 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>35663100</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1851,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,13 +2008,14 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>2935700</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1904,14 +2035,17 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>2135400</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -1931,14 +2065,17 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>5278400</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -1958,14 +2095,17 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>10349500</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -1985,14 +2125,17 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>8887900</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2012,14 +2155,17 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>4659200</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2039,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,14 +2275,17 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>23946200</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2147,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,14 +2439,17 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>11309900</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2295,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,14 +2559,17 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>11716900</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2403,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,19 +2619,22 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>3</v>
+      <c r="D80" s="2">
+        <v>44926</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>3</v>
@@ -2462,14 +2654,17 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>2891100</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>3</v>
@@ -2489,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,13 +2701,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>753200</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -2529,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,14 +2878,17 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>2974200</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -2691,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,13 +2925,14 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-449200</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,14 +3012,17 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-172500</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -2812,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,13 +3059,14 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1549800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2852,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,14 +3176,17 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-2953100</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -2960,14 +3206,17 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>23600</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -2987,14 +3236,17 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-127800</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>
@@ -3014,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RBGLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RBGLY_YR_FIN.xlsx
@@ -715,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>17933300</v>
+        <v>18316300</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -745,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7559000</v>
+        <v>7720400</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>10374300</v>
+        <v>10595900</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -819,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>403300</v>
+        <v>411900</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>254400</v>
+        <v>259800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -909,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>40900</v>
+        <v>41800</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -950,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13928000</v>
+        <v>14225400</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>3</v>
@@ -980,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4005300</v>
+        <v>4090800</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>89300</v>
+        <v>91200</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>3</v>
@@ -1054,7 +1054,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4852500</v>
+        <v>4951300</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1084,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>289100</v>
+        <v>295300</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1114,7 +1114,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3805500</v>
+        <v>3886800</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>882200</v>
+        <v>901100</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1204,7 +1204,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2923300</v>
+        <v>2985800</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>3</v>
@@ -1234,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2899700</v>
+        <v>2961700</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>3</v>
@@ -1294,7 +1294,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>3</v>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-89300</v>
+        <v>-91200</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
@@ -1414,7 +1414,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2891100</v>
+        <v>2952800</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>3</v>
@@ -1474,7 +1474,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2891100</v>
+        <v>2952800</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>3</v>
@@ -1567,7 +1567,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>478900</v>
+        <v>489200</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1597,7 +1597,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>614200</v>
+        <v>627300</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1627,7 +1627,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2659000</v>
+        <v>2715800</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1657,7 +1657,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2264500</v>
+        <v>2312800</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1687,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>541000</v>
+        <v>552500</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1717,7 +1717,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6557600</v>
+        <v>6697700</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1747,7 +1747,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>301500</v>
+        <v>308000</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1777,7 +1777,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3068500</v>
+        <v>3134000</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1807,7 +1807,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25067900</v>
+        <v>25603300</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1897,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>667600</v>
+        <v>681800</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1957,7 +1957,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35663100</v>
+        <v>36424700</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -2015,7 +2015,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2935700</v>
+        <v>2998400</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -2045,7 +2045,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2135400</v>
+        <v>2181000</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2075,7 +2075,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5278400</v>
+        <v>5391100</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2105,7 +2105,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10349500</v>
+        <v>10570500</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2135,7 +2135,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8887900</v>
+        <v>9077700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4659200</v>
+        <v>4758700</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2285,7 +2285,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23946200</v>
+        <v>24457600</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2449,7 +2449,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11309900</v>
+        <v>11551400</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2569,7 +2569,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11716900</v>
+        <v>11967100</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2664,7 +2664,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2891100</v>
+        <v>2952800</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>3</v>
@@ -2708,7 +2708,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>753200</v>
+        <v>769300</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -2888,7 +2888,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2974200</v>
+        <v>3037700</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -2932,7 +2932,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-449200</v>
+        <v>-458800</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -3022,7 +3022,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-172500</v>
+        <v>-176200</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -3066,7 +3066,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1549800</v>
+        <v>-1582900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2953100</v>
+        <v>-3016200</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23600</v>
+        <v>24100</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -3246,7 +3246,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-127800</v>
+        <v>-130500</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/RBGLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RBGLY_YR_FIN.xlsx
@@ -715,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>18316300</v>
+        <v>17930400</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -745,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7720400</v>
+        <v>7557700</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>10595900</v>
+        <v>10372700</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -819,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>411900</v>
+        <v>403200</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>259800</v>
+        <v>254300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -909,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>41800</v>
+        <v>40900</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -950,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14225400</v>
+        <v>13925700</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>3</v>
@@ -980,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4090800</v>
+        <v>4004700</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>91200</v>
+        <v>89300</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>3</v>
@@ -1054,7 +1054,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4951300</v>
+        <v>4847800</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1084,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>295300</v>
+        <v>289100</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1114,7 +1114,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3886800</v>
+        <v>3804900</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>901100</v>
+        <v>882100</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1204,7 +1204,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2985800</v>
+        <v>2922900</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>3</v>
@@ -1234,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2961700</v>
+        <v>2899300</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>3</v>
@@ -1294,7 +1294,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-8900</v>
+        <v>-8700</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>3</v>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-91200</v>
+        <v>-89300</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
@@ -1414,7 +1414,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2952800</v>
+        <v>2890600</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>3</v>
@@ -1474,7 +1474,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2952800</v>
+        <v>2890600</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>3</v>
@@ -1567,7 +1567,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>489200</v>
+        <v>478900</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1597,7 +1597,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>627300</v>
+        <v>614100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1627,7 +1627,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2715800</v>
+        <v>2658600</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1657,7 +1657,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2312800</v>
+        <v>2264100</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1687,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>552500</v>
+        <v>540900</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1717,7 +1717,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6697700</v>
+        <v>6556600</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1747,7 +1747,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>308000</v>
+        <v>301500</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1777,7 +1777,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3134000</v>
+        <v>3068000</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1807,7 +1807,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25603300</v>
+        <v>25063800</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1897,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>681800</v>
+        <v>667400</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1957,7 +1957,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36424700</v>
+        <v>35657300</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -2015,7 +2015,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2998400</v>
+        <v>2935300</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -2045,7 +2045,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2181000</v>
+        <v>2135100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2075,7 +2075,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5391100</v>
+        <v>5277500</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2105,7 +2105,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10570500</v>
+        <v>10347800</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2135,7 +2135,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9077700</v>
+        <v>8886400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4758700</v>
+        <v>4658500</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2285,7 +2285,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24457600</v>
+        <v>23942300</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2449,7 +2449,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11551400</v>
+        <v>11308100</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2569,7 +2569,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11967100</v>
+        <v>11715000</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2664,7 +2664,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2952800</v>
+        <v>2890600</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>3</v>
@@ -2708,7 +2708,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>769300</v>
+        <v>753000</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -2888,7 +2888,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3037700</v>
+        <v>2973700</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -2932,7 +2932,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-458800</v>
+        <v>-449100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -3022,7 +3022,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-176200</v>
+        <v>-172400</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -3066,7 +3066,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1582900</v>
+        <v>-1549500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3016200</v>
+        <v>-2952600</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24100</v>
+        <v>23600</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -3246,7 +3246,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-130500</v>
+        <v>-127800</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>
